--- a/docs/電気容量計算.xlsx
+++ b/docs/電気容量計算.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuuma\Desktop\卒研\クロストークの実測\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuuma\Desktop\Ksimulation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF322B-59A3-486B-BEFD-880B40534298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04AF1CA-CFDD-49EA-8C9C-3C801CBC2D2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB20E8BB-87C7-4F22-A198-79197687D481}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A2:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -749,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>49.274999999999999</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
       </c>
       <c r="D13">
         <f>G7*D15/D14</f>
-        <v>1.1832977340000004E-2</v>
+        <v>9.5456286000000033E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -782,7 +782,7 @@
       </c>
       <c r="D15">
         <f>D16*D17</f>
-        <v>8.8695000000000004E-7</v>
+        <v>7.1550000000000007E-7</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -800,7 +800,7 @@
       </c>
       <c r="D17">
         <f>C11/1000</f>
-        <v>4.9274999999999999E-2</v>
+        <v>3.9750000000000001E-2</v>
       </c>
     </row>
   </sheetData>
